--- a/src/main/other/ElementsData.xlsx
+++ b/src/main/other/ElementsData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\MEOCloud\ISEL\Git\Bootstrap\first\www\src\main\other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Desktop\firstProject\web\src\main\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="127">
   <si>
     <t>Lula</t>
   </si>
@@ -282,6 +282,129 @@
   </si>
   <si>
     <t>q9237om5</t>
+  </si>
+  <si>
+    <t>Cl&amp;aacute;udia</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Joana</t>
+  </si>
+  <si>
+    <t>7r4tt5fe</t>
+  </si>
+  <si>
+    <t>Ana Isabel</t>
+  </si>
+  <si>
+    <t>kxujyo72</t>
+  </si>
+  <si>
+    <t>5jwzbhwk</t>
+  </si>
+  <si>
+    <t>3ew9rcrz</t>
+  </si>
+  <si>
+    <t>B&amp;aacute;rbara</t>
+  </si>
+  <si>
+    <t>h4fsg0rx</t>
+  </si>
+  <si>
+    <t>69i7m954</t>
+  </si>
+  <si>
+    <t>2wpmqcsc</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>eji85owt</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>&amp;Eacute;lsio</t>
+  </si>
+  <si>
+    <t>Cl&amp;aacute;udio</t>
+  </si>
+  <si>
+    <t>F&amp;aacute;bio</t>
+  </si>
+  <si>
+    <t>V&amp;acirc;nia</t>
+  </si>
+  <si>
+    <t>M&amp;aacute;rio</t>
+  </si>
+  <si>
+    <t>C&amp;aacute;tia</t>
+  </si>
+  <si>
+    <t>S&amp;iacute;lvia</t>
+  </si>
+  <si>
+    <t>V&amp;iacute;tor</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Lu&amp;iacute;s</t>
+  </si>
+  <si>
+    <t>Rute</t>
+  </si>
+  <si>
+    <t>Jo&amp;atilde;o</t>
+  </si>
+  <si>
+    <t>Patr&amp;iacute;cia</t>
+  </si>
+  <si>
+    <t>M&amp;aacute;rcia</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Am&amp;acirc;ndio</t>
+  </si>
+  <si>
+    <t>Raquel</t>
+  </si>
+  <si>
+    <t>Manuela</t>
+  </si>
+  <si>
+    <t>In&amp;ecirc;s</t>
+  </si>
+  <si>
+    <t>Diana Peixoto</t>
+  </si>
+  <si>
+    <t>Bárbara</t>
+  </si>
+  <si>
+    <t>Joana Cristino</t>
+  </si>
+  <si>
+    <t>Caty</t>
   </si>
 </sst>
 </file>
@@ -599,20 +722,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -625,8 +749,11 @@
       <c r="D1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -639,10 +766,13 @@
       <c r="D2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -653,10 +783,13 @@
       <c r="D3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -667,10 +800,13 @@
       <c r="D4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -681,8 +817,11 @@
       <c r="D5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -695,10 +834,13 @@
       <c r="D6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -709,8 +851,11 @@
       <c r="D7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -723,8 +868,11 @@
       <c r="D8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -737,8 +885,11 @@
       <c r="D9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -751,10 +902,13 @@
       <c r="D10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -765,10 +919,13 @@
       <c r="D11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -779,8 +936,11 @@
       <c r="D12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -793,10 +953,13 @@
       <c r="D13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -807,10 +970,13 @@
       <c r="D14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -821,10 +987,13 @@
       <c r="D15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -835,8 +1004,11 @@
       <c r="D16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -849,10 +1021,13 @@
       <c r="D17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -863,8 +1038,11 @@
       <c r="D18" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -877,8 +1055,11 @@
       <c r="D19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -891,10 +1072,13 @@
       <c r="D20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -905,10 +1089,13 @@
       <c r="D21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -919,10 +1106,13 @@
       <c r="D22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -933,10 +1123,13 @@
       <c r="D23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -947,10 +1140,13 @@
       <c r="D24" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -961,10 +1157,13 @@
       <c r="D25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -975,8 +1174,11 @@
       <c r="D26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -989,10 +1191,13 @@
       <c r="D27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1003,10 +1208,13 @@
       <c r="D28" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1017,10 +1225,13 @@
       <c r="D29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1031,10 +1242,13 @@
       <c r="D30" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1045,10 +1259,13 @@
       <c r="D31" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1059,10 +1276,13 @@
       <c r="D32" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1073,10 +1293,13 @@
       <c r="D33" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1087,10 +1310,13 @@
       <c r="D34" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1101,8 +1327,11 @@
       <c r="D35" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1115,10 +1344,13 @@
       <c r="D36" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1129,8 +1361,11 @@
       <c r="D37" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1143,8 +1378,11 @@
       <c r="D38" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1157,10 +1395,13 @@
       <c r="D39" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1171,10 +1412,13 @@
       <c r="D40" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1184,6 +1428,145 @@
       </c>
       <c r="D41" t="s">
         <v>44</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/other/ElementsData.xlsx
+++ b/src/main/other/ElementsData.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\MEOCloud\ISEL\Git\Bootstrap\first\www\src\main\other\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="100">
   <si>
     <t>Lula</t>
   </si>
@@ -315,13 +310,22 @@
   </si>
   <si>
     <t>anossasurpresa.eu</t>
+  </si>
+  <si>
+    <t>Vitinho</t>
+  </si>
+  <si>
+    <t>Ru</t>
+  </si>
+  <si>
+    <t>Belinha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,12 +334,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -350,8 +360,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +423,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,7 +458,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,29 +635,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -660,8 +671,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -685,8 +696,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B3">
@@ -699,7 +710,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E49" si="0">"_repo.add(new Element("""&amp;C3&amp;""", """&amp;A3&amp;""", "&amp;IF(B3=1,"true","false")&amp;"));"</f>
+        <f t="shared" ref="E3:E51" si="0">"_repo.add(new Element("""&amp;C3&amp;""", """&amp;A3&amp;""", "&amp;IF(B3=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("zgrfwk92", "&amp;Ecirc;lsio", true));</v>
       </c>
       <c r="F3" t="str">
@@ -710,8 +721,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B4">
@@ -728,15 +739,15 @@
         <v>_repo.add(new Element("wgbwmrhy", "Cl&amp;aacute;udio", true));</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F3:F49" si="1">"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;G4&amp;" insere o código "&amp;C4&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
+        <f t="shared" ref="F4:F50" si="1">"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;G4&amp;" insere o código "&amp;C4&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código wgbwmrhy e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
       <c r="G4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B5">
@@ -760,8 +771,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B6">
@@ -785,8 +796,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B7">
@@ -810,8 +821,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8">
@@ -835,8 +846,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9">
@@ -860,8 +871,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10">
@@ -885,8 +896,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B11">
@@ -910,8 +921,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B12">
@@ -935,8 +946,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13">
@@ -960,8 +971,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B14">
@@ -985,8 +996,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B15">
@@ -1010,8 +1021,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B16">
@@ -1035,8 +1046,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B17">
@@ -1060,8 +1071,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B18">
@@ -1085,8 +1096,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B19">
@@ -1110,8 +1121,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B20">
@@ -1135,8 +1146,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B21">
@@ -1160,8 +1171,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B22">
@@ -1185,8 +1196,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B23">
@@ -1210,8 +1221,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B24">
@@ -1235,8 +1246,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B25">
@@ -1260,8 +1271,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B26">
@@ -1285,8 +1296,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B27">
@@ -1310,8 +1321,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B28">
@@ -1335,8 +1346,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B29">
@@ -1360,8 +1371,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B30">
@@ -1385,8 +1396,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B31">
@@ -1410,8 +1421,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B32">
@@ -1435,8 +1446,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B33">
@@ -1460,8 +1471,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B34">
@@ -1485,8 +1496,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B35">
@@ -1510,8 +1521,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B36">
@@ -1535,8 +1546,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B37">
@@ -1560,8 +1571,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B38">
@@ -1585,8 +1596,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B39">
@@ -1610,8 +1621,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B40">
@@ -1635,8 +1646,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B41">
@@ -1660,8 +1671,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B42">
@@ -1685,8 +1696,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B43">
@@ -1710,8 +1721,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B44">
@@ -1735,8 +1746,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B45">
@@ -1760,8 +1771,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B46">
@@ -1785,8 +1796,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B47">
@@ -1810,8 +1821,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B48">
@@ -1835,8 +1846,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B49">
@@ -1857,6 +1868,81 @@
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código eji85owt e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
       <c r="G49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>_repo.add(new Element("7r4tt5fe", "Ru", false));</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código 7r4tt5fe e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
+      </c>
+      <c r="G50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" ref="E51:E52" si="2">"_repo.add(new Element("""&amp;C51&amp;""", """&amp;A51&amp;""", "&amp;IF(B51=1,"true","false")&amp;"));"</f>
+        <v>_repo.add(new Element("kxujyo72", "Vitinho", true));</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" ref="F51" si="3">"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;G51&amp;" insere o código "&amp;C51&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
+        <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código kxujyo72 e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
+      </c>
+      <c r="G51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="2"/>
+        <v>_repo.add(new Element("5jwzbhwk", "Belinha", false));</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" ref="F52" si="4">"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;G52&amp;" insere o código "&amp;C52&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
+        <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código 5jwzbhwk e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
+      </c>
+      <c r="G52" t="s">
         <v>96</v>
       </c>
     </row>

--- a/src/main/other/ElementsData.xlsx
+++ b/src/main/other/ElementsData.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Desktop\firstProject\web\src\main\other\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="107">
   <si>
     <t>Lula</t>
   </si>
@@ -319,13 +324,34 @@
   </si>
   <si>
     <t>Belinha</t>
+  </si>
+  <si>
+    <t>gpz3m52q</t>
+  </si>
+  <si>
+    <t>nv2lnvoa</t>
+  </si>
+  <si>
+    <t>z4103cju</t>
+  </si>
+  <si>
+    <t>ordem</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>domain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,1318 +661,1486 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50:F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="str">
-        <f>"_repo.add(new Element("""&amp;C2&amp;""", """&amp;A2&amp;""", "&amp;IF(B2=1,"true","false")&amp;"));"</f>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"_repo.add(new Element("""&amp;D2&amp;""", """&amp;B2&amp;""", "&amp;IF(C2=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("dloilp5t", "Lula", true));</v>
       </c>
-      <c r="F2" t="str">
-        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;G2&amp;" insere o código "&amp;C2&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
+      <c r="G2" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H2&amp;" insere o código "&amp;D2&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código dloilp5t e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="H2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E51" si="0">"_repo.add(new Element("""&amp;C3&amp;""", """&amp;A3&amp;""", "&amp;IF(B3=1,"true","false")&amp;"));"</f>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="str">
+        <f>"_repo.add(new Element("""&amp;D3&amp;""", """&amp;B3&amp;""", "&amp;IF(C3=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("zgrfwk92", "&amp;Ecirc;lsio", true));</v>
       </c>
-      <c r="F3" t="str">
-        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;G3&amp;" insere o código "&amp;C3&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
+      <c r="G3" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H3&amp;" insere o código "&amp;D3&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código zgrfwk92 e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="H3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="str">
+        <f>"_repo.add(new Element("""&amp;D4&amp;""", """&amp;B4&amp;""", "&amp;IF(C4=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("wgbwmrhy", "Cl&amp;aacute;udio", true));</v>
       </c>
-      <c r="F4" t="str">
-        <f t="shared" ref="F4:F50" si="1">"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;G4&amp;" insere o código "&amp;C4&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
+      <c r="G4" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H4&amp;" insere o código "&amp;D4&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código wgbwmrhy e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="str">
+        <f>"_repo.add(new Element("""&amp;D5&amp;""", """&amp;B5&amp;""", "&amp;IF(C5=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("nkdqgoi3", "F&amp;aacute;bio", true));</v>
       </c>
-      <c r="F5" t="str">
-        <f t="shared" si="1"/>
+      <c r="G5" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H5&amp;" insere o código "&amp;D5&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código nkdqgoi3 e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="H5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="str">
+        <f>"_repo.add(new Element("""&amp;D6&amp;""", """&amp;B6&amp;""", "&amp;IF(C6=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("xxmm8zlj", "Vanessa", false));</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" si="1"/>
+      <c r="G6" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H6&amp;" insere o código "&amp;D6&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código xxmm8zlj e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="H6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="str">
+        <f>"_repo.add(new Element("""&amp;D7&amp;""", """&amp;B7&amp;""", "&amp;IF(C7=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("v9tf49vd", "Cl&amp;aacute;udia", false));</v>
       </c>
-      <c r="F7" t="str">
-        <f t="shared" si="1"/>
+      <c r="G7" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H7&amp;" insere o código "&amp;D7&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código v9tf49vd e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+      <c r="H7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="str">
+        <f>"_repo.add(new Element("""&amp;D8&amp;""", """&amp;B8&amp;""", "&amp;IF(C8=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("y43azx4d", "Niza", true));</v>
       </c>
-      <c r="F8" t="str">
-        <f t="shared" si="1"/>
+      <c r="G8" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H8&amp;" insere o código "&amp;D8&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código y43azx4d e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="H8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="str">
+        <f>"_repo.add(new Element("""&amp;D9&amp;""", """&amp;B9&amp;""", "&amp;IF(C9=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("akjaf5em", "Marcos", true));</v>
       </c>
-      <c r="F9" t="str">
-        <f t="shared" si="1"/>
+      <c r="G9" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H9&amp;" insere o código "&amp;D9&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código akjaf5em e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
+      <c r="H9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="str">
+        <f>"_repo.add(new Element("""&amp;D10&amp;""", """&amp;B10&amp;""", "&amp;IF(C10=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("jvuswhyd", "Mike", true));</v>
       </c>
-      <c r="F10" t="str">
-        <f t="shared" si="1"/>
+      <c r="G10" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H10&amp;" insere o código "&amp;D10&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código jvuswhyd e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
+      <c r="H10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="str">
+        <f>"_repo.add(new Element("""&amp;D11&amp;""", """&amp;B11&amp;""", "&amp;IF(C11=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("c7pxhotx", "V&amp;acirc;nia", false));</v>
       </c>
-      <c r="F11" t="str">
-        <f t="shared" si="1"/>
+      <c r="G11" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H11&amp;" insere o código "&amp;D11&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código c7pxhotx e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
+      <c r="H11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="str">
+        <f>"_repo.add(new Element("""&amp;D12&amp;""", """&amp;B12&amp;""", "&amp;IF(C12=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("94mn0any", "M&amp;aacute;rio", true));</v>
       </c>
-      <c r="F12" t="str">
-        <f t="shared" si="1"/>
+      <c r="G12" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H12&amp;" insere o código "&amp;D12&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código 94mn0any e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
+      <c r="H12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="str">
+        <f>"_repo.add(new Element("""&amp;D13&amp;""", """&amp;B13&amp;""", "&amp;IF(C13=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("flkg3zus", "Nuno", true));</v>
       </c>
-      <c r="F13" t="str">
-        <f t="shared" si="1"/>
+      <c r="G13" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H13&amp;" insere o código "&amp;D13&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código flkg3zus e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="str">
+        <f>"_repo.add(new Element("""&amp;D14&amp;""", """&amp;B14&amp;""", "&amp;IF(C14=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("di9f9fy3", "C&amp;aacute;tia", false));</v>
       </c>
-      <c r="F14" t="str">
-        <f t="shared" si="1"/>
+      <c r="G14" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H14&amp;" insere o código "&amp;D14&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código di9f9fy3 e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
+      <c r="H14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="str">
+        <f>"_repo.add(new Element("""&amp;D15&amp;""", """&amp;B15&amp;""", "&amp;IF(C15=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("whnh6pvt", "C&amp;aacute;tia", false));</v>
       </c>
-      <c r="F15" t="str">
-        <f t="shared" si="1"/>
+      <c r="G15" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H15&amp;" insere o código "&amp;D15&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código whnh6pvt e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
+      <c r="H15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="str">
+        <f>"_repo.add(new Element("""&amp;D16&amp;""", """&amp;B16&amp;""", "&amp;IF(C16=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("m51km6kw", "Rita", false));</v>
       </c>
-      <c r="F16" t="str">
-        <f t="shared" si="1"/>
+      <c r="G16" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H16&amp;" insere o código "&amp;D16&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código m51km6kw e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
+      <c r="H16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
         <v>34</v>
       </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="str">
+        <f>"_repo.add(new Element("""&amp;D17&amp;""", """&amp;B17&amp;""", "&amp;IF(C17=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("dtbwjdt4", "Ritinha", false));</v>
       </c>
-      <c r="F17" t="str">
-        <f t="shared" si="1"/>
+      <c r="G17" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H17&amp;" insere o código "&amp;D17&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código dtbwjdt4 e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
+      <c r="H17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
         <v>35</v>
       </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="str">
+        <f>"_repo.add(new Element("""&amp;D18&amp;""", """&amp;B18&amp;""", "&amp;IF(C18=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("xiivsq18", "S&amp;iacute;lvia", false));</v>
       </c>
-      <c r="F18" t="str">
-        <f t="shared" si="1"/>
+      <c r="G18" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H18&amp;" insere o código "&amp;D18&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código xiivsq18 e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
+      <c r="H18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="str">
+        <f>"_repo.add(new Element("""&amp;D19&amp;""", """&amp;B19&amp;""", "&amp;IF(C19=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("8ci55izr", "Jorge", true));</v>
       </c>
-      <c r="F19" t="str">
-        <f t="shared" si="1"/>
+      <c r="G19" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H19&amp;" insere o código "&amp;D19&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código 8ci55izr e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
+      <c r="H19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="str">
+        <f>"_repo.add(new Element("""&amp;D20&amp;""", """&amp;B20&amp;""", "&amp;IF(C20=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("n2giy7tq", "Filipa", false));</v>
       </c>
-      <c r="F20" t="str">
-        <f t="shared" si="1"/>
+      <c r="G20" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H20&amp;" insere o código "&amp;D20&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código n2giy7tq e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
+      <c r="H20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>38</v>
       </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="str">
+        <f>"_repo.add(new Element("""&amp;D21&amp;""", """&amp;B21&amp;""", "&amp;IF(C21=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("49b010l3", "V&amp;iacute;tor", true));</v>
       </c>
-      <c r="F21" t="str">
-        <f t="shared" si="1"/>
+      <c r="G21" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H21&amp;" insere o código "&amp;D21&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código 49b010l3 e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
+      <c r="H21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
         <v>39</v>
       </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="str">
+        <f>"_repo.add(new Element("""&amp;D22&amp;""", """&amp;B22&amp;""", "&amp;IF(C22=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("jy5v98ii", "Joana", false));</v>
       </c>
-      <c r="F22" t="str">
-        <f t="shared" si="1"/>
+      <c r="G22" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H22&amp;" insere o código "&amp;D22&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código jy5v98ii e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
+      <c r="H22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>40</v>
       </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="str">
+        <f>"_repo.add(new Element("""&amp;D23&amp;""", """&amp;B23&amp;""", "&amp;IF(C23=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("httuxlej", "Pedro", true));</v>
       </c>
-      <c r="F23" t="str">
-        <f t="shared" si="1"/>
+      <c r="G23" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H23&amp;" insere o código "&amp;D23&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código httuxlej e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
+      <c r="H23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
         <v>41</v>
       </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="str">
+        <f>"_repo.add(new Element("""&amp;D24&amp;""", """&amp;B24&amp;""", "&amp;IF(C24=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("8zgxjype", "Sandra", false));</v>
       </c>
-      <c r="F24" t="str">
-        <f t="shared" si="1"/>
+      <c r="G24" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H24&amp;" insere o código "&amp;D24&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código 8zgxjype e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
+      <c r="H24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>42</v>
       </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="str">
+        <f>"_repo.add(new Element("""&amp;D25&amp;""", """&amp;B25&amp;""", "&amp;IF(C25=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("5mu3mlxn", "Paulo", true));</v>
       </c>
-      <c r="F25" t="str">
-        <f t="shared" si="1"/>
+      <c r="G25" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H25&amp;" insere o código "&amp;D25&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código 5mu3mlxn e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
+      <c r="H25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
         <v>43</v>
       </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="str">
+        <f>"_repo.add(new Element("""&amp;D26&amp;""", """&amp;B26&amp;""", "&amp;IF(C26=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("dfjn5h3l", "Lu&amp;iacute;s", true));</v>
       </c>
-      <c r="F26" t="str">
-        <f t="shared" si="1"/>
+      <c r="G26" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H26&amp;" insere o código "&amp;D26&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código dfjn5h3l e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
+      <c r="H26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>44</v>
       </c>
-      <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="str">
+        <f>"_repo.add(new Element("""&amp;D27&amp;""", """&amp;B27&amp;""", "&amp;IF(C27=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("k1ng273t", "Alfredo", true));</v>
       </c>
-      <c r="F27" t="str">
-        <f t="shared" si="1"/>
+      <c r="G27" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H27&amp;" insere o código "&amp;D27&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código k1ng273t e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
+      <c r="H27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
         <v>45</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>18</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
+      <c r="F28" t="str">
+        <f>"_repo.add(new Element("""&amp;D28&amp;""", """&amp;B28&amp;""", "&amp;IF(C28=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("dy8dgl70", "Rute", false));</v>
       </c>
-      <c r="F28" t="str">
-        <f t="shared" si="1"/>
+      <c r="G28" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H28&amp;" insere o código "&amp;D28&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código dy8dgl70 e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
+      <c r="H28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
         <v>46</v>
       </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="str">
+        <f>"_repo.add(new Element("""&amp;D29&amp;""", """&amp;B29&amp;""", "&amp;IF(C29=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("xj6orm8j", "Jo&amp;atilde;o", true));</v>
       </c>
-      <c r="F29" t="str">
-        <f t="shared" si="1"/>
+      <c r="G29" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H29&amp;" insere o código "&amp;D29&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código xj6orm8j e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
+      <c r="H29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
         <v>47</v>
       </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="str">
+        <f>"_repo.add(new Element("""&amp;D30&amp;""", """&amp;B30&amp;""", "&amp;IF(C30=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("uti11f1c", "Patr&amp;iacute;cia", false));</v>
       </c>
-      <c r="F30" t="str">
-        <f t="shared" si="1"/>
+      <c r="G30" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H30&amp;" insere o código "&amp;D30&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código uti11f1c e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
+      <c r="H30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
         <v>48</v>
       </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="str">
+        <f>"_repo.add(new Element("""&amp;D31&amp;""", """&amp;B31&amp;""", "&amp;IF(C31=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("6utnnhrp", "M&amp;aacute;rcia", false));</v>
       </c>
-      <c r="F31" t="str">
-        <f t="shared" si="1"/>
+      <c r="G31" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H31&amp;" insere o código "&amp;D31&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código 6utnnhrp e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
+      <c r="H31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
         <v>49</v>
       </c>
-      <c r="D32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="str">
+        <f>"_repo.add(new Element("""&amp;D32&amp;""", """&amp;B32&amp;""", "&amp;IF(C32=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("c9no3zxa", "Ana", false));</v>
       </c>
-      <c r="F32" t="str">
-        <f t="shared" si="1"/>
+      <c r="G32" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H32&amp;" insere o código "&amp;D32&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código c9no3zxa e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
+      <c r="H32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
         <v>50</v>
       </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="str">
+        <f>"_repo.add(new Element("""&amp;D33&amp;""", """&amp;B33&amp;""", "&amp;IF(C33=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("mxzla7ml", "Am&amp;acirc;ndio", true));</v>
       </c>
-      <c r="F33" t="str">
-        <f t="shared" si="1"/>
+      <c r="G33" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H33&amp;" insere o código "&amp;D33&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código mxzla7ml e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
+      <c r="H33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
         <v>51</v>
       </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="str">
+        <f>"_repo.add(new Element("""&amp;D34&amp;""", """&amp;B34&amp;""", "&amp;IF(C34=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("llokuv52", "Raquel", false));</v>
       </c>
-      <c r="F34" t="str">
-        <f t="shared" si="1"/>
+      <c r="G34" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H34&amp;" insere o código "&amp;D34&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código llokuv52 e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
+      <c r="H34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
         <v>52</v>
       </c>
-      <c r="D35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="str">
+        <f>"_repo.add(new Element("""&amp;D35&amp;""", """&amp;B35&amp;""", "&amp;IF(C35=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("2xl69o81", "Manuela", false));</v>
       </c>
-      <c r="F35" t="str">
-        <f t="shared" si="1"/>
+      <c r="G35" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H35&amp;" insere o código "&amp;D35&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código 2xl69o81 e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1" t="s">
+      <c r="H35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
         <v>53</v>
       </c>
-      <c r="D36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="0"/>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="str">
+        <f>"_repo.add(new Element("""&amp;D36&amp;""", """&amp;B36&amp;""", "&amp;IF(C36=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("7zpus574", "Leonel", true));</v>
       </c>
-      <c r="F36" t="str">
-        <f t="shared" si="1"/>
+      <c r="G36" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H36&amp;" insere o código "&amp;D36&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código 7zpus574 e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1" t="s">
+      <c r="H36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
         <v>54</v>
       </c>
-      <c r="D37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="str">
+        <f>"_repo.add(new Element("""&amp;D37&amp;""", """&amp;B37&amp;""", "&amp;IF(C37=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("arl842kn", "In&amp;ecirc;s", false));</v>
       </c>
-      <c r="F37" t="str">
-        <f t="shared" si="1"/>
+      <c r="G37" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H37&amp;" insere o código "&amp;D37&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código arl842kn e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
+      <c r="H37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
         <v>55</v>
       </c>
-      <c r="D38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="0"/>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="str">
+        <f>"_repo.add(new Element("""&amp;D38&amp;""", """&amp;B38&amp;""", "&amp;IF(C38=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("kt8u6xn3", "Fred", true));</v>
       </c>
-      <c r="F38" t="str">
-        <f t="shared" si="1"/>
+      <c r="G38" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H38&amp;" insere o código "&amp;D38&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código kt8u6xn3 e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
+      <c r="H38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
         <v>56</v>
       </c>
-      <c r="D39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="str">
+        <f>"_repo.add(new Element("""&amp;D39&amp;""", """&amp;B39&amp;""", "&amp;IF(C39=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("er408kox", "Lara", false));</v>
       </c>
-      <c r="F39" t="str">
-        <f t="shared" si="1"/>
+      <c r="G39" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H39&amp;" insere o código "&amp;D39&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código er408kox e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
+      <c r="H39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
         <v>57</v>
       </c>
-      <c r="D40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="str">
+        <f>"_repo.add(new Element("""&amp;D40&amp;""", """&amp;B40&amp;""", "&amp;IF(C40=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("idsmwzdd", "Patr&amp;iacute;cia", false));</v>
       </c>
-      <c r="F40" t="str">
-        <f t="shared" si="1"/>
+      <c r="G40" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H40&amp;" insere o código "&amp;D40&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código idsmwzdd e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
+      <c r="H40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
         <v>58</v>
       </c>
-      <c r="D41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="str">
+        <f>"_repo.add(new Element("""&amp;D41&amp;""", """&amp;B41&amp;""", "&amp;IF(C41=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("q9237om5", "Ana", false));</v>
       </c>
-      <c r="F41" t="str">
-        <f t="shared" si="1"/>
+      <c r="G41" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H41&amp;" insere o código "&amp;D41&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código q9237om5 e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1" t="s">
+      <c r="H41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
         <v>60</v>
       </c>
-      <c r="D42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="str">
+        <f>"_repo.add(new Element("""&amp;D42&amp;""", """&amp;B42&amp;""", "&amp;IF(C42=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("7r4tt5fe", "Ana Isabel", false));</v>
       </c>
-      <c r="F42" t="str">
-        <f t="shared" si="1"/>
+      <c r="G42" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H42&amp;" insere o código "&amp;D42&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código 7r4tt5fe e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="1" t="s">
+      <c r="H42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
         <v>61</v>
       </c>
-      <c r="D43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="0"/>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="str">
+        <f>"_repo.add(new Element("""&amp;D43&amp;""", """&amp;B43&amp;""", "&amp;IF(C43=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("kxujyo72", "Rita", false));</v>
       </c>
-      <c r="F43" t="str">
-        <f t="shared" si="1"/>
+      <c r="G43" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H43&amp;" insere o código "&amp;D43&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código kxujyo72 e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G43" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1" t="s">
+      <c r="H43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
         <v>62</v>
       </c>
-      <c r="D44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="0"/>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" t="str">
+        <f>"_repo.add(new Element("""&amp;D44&amp;""", """&amp;B44&amp;""", "&amp;IF(C44=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("5jwzbhwk", "Joana", false));</v>
       </c>
-      <c r="F44" t="str">
-        <f t="shared" si="1"/>
+      <c r="G44" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H44&amp;" insere o código "&amp;D44&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código 5jwzbhwk e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1" t="s">
+      <c r="H44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
         <v>63</v>
       </c>
-      <c r="D45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="0"/>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="str">
+        <f>"_repo.add(new Element("""&amp;D45&amp;""", """&amp;B45&amp;""", "&amp;IF(C45=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("3ew9rcrz", "B&amp;aacute;rbara", false));</v>
       </c>
-      <c r="F45" t="str">
-        <f t="shared" si="1"/>
+      <c r="G45" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H45&amp;" insere o código "&amp;D45&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código 3ew9rcrz e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
+      <c r="H45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
         <v>64</v>
       </c>
-      <c r="D46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" si="0"/>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="str">
+        <f>"_repo.add(new Element("""&amp;D46&amp;""", """&amp;B46&amp;""", "&amp;IF(C46=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("h4fsg0rx", "Cl&amp;aacute;udia", false));</v>
       </c>
-      <c r="F46" t="str">
-        <f t="shared" si="1"/>
+      <c r="G46" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H46&amp;" insere o código "&amp;D46&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código h4fsg0rx e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1" t="s">
+      <c r="H46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
         <v>65</v>
       </c>
-      <c r="D47" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" si="0"/>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="str">
+        <f>"_repo.add(new Element("""&amp;D47&amp;""", """&amp;B47&amp;""", "&amp;IF(C47=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("69i7m954", "Katy", false));</v>
       </c>
-      <c r="F47" t="str">
-        <f t="shared" si="1"/>
+      <c r="G47" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H47&amp;" insere o código "&amp;D47&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código 69i7m954 e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1" t="s">
+      <c r="H47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
         <v>66</v>
       </c>
-      <c r="D48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="0"/>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" t="str">
+        <f>"_repo.add(new Element("""&amp;D48&amp;""", """&amp;B48&amp;""", "&amp;IF(C48=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("2wpmqcsc", "Miguel", true));</v>
       </c>
-      <c r="F48" t="str">
-        <f t="shared" si="1"/>
+      <c r="G48" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H48&amp;" insere o código "&amp;D48&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código 2wpmqcsc e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
+      <c r="H48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
         <v>67</v>
       </c>
-      <c r="D49" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" si="0"/>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" t="str">
+        <f>"_repo.add(new Element("""&amp;D49&amp;""", """&amp;B49&amp;""", "&amp;IF(C49=1,"true","false")&amp;"));"</f>
         <v>_repo.add(new Element("eji85owt", "Diana", false));</v>
       </c>
-      <c r="F49" t="str">
-        <f t="shared" si="1"/>
+      <c r="G49" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H49&amp;" insere o código "&amp;D49&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
         <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código eji85owt e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
       </c>
-      <c r="G49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
+      <c r="H49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
         <v>98</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50" t="s">
-        <v>60</v>
+      <c r="C50">
+        <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="0"/>
-        <v>_repo.add(new Element("7r4tt5fe", "Ru", false));</v>
+        <v>100</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="1"/>
-        <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código 7r4tt5fe e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
-      </c>
-      <c r="G50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
+        <f>"_repo.add(new Element("""&amp;D50&amp;""", """&amp;B50&amp;""", "&amp;IF(C50=1,"true","false")&amp;"));"</f>
+        <v>_repo.add(new Element("gpz3m52q", "Ru", false));</v>
+      </c>
+      <c r="G50" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H50&amp;" insere o código "&amp;D50&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
+        <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código gpz3m52q e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
+      </c>
+      <c r="H50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>97</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>61</v>
+      <c r="C51">
+        <v>1</v>
       </c>
       <c r="D51" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" t="s">
         <v>18</v>
       </c>
-      <c r="E51" t="str">
-        <f t="shared" ref="E51:E52" si="2">"_repo.add(new Element("""&amp;C51&amp;""", """&amp;A51&amp;""", "&amp;IF(B51=1,"true","false")&amp;"));"</f>
-        <v>_repo.add(new Element("kxujyo72", "Vitinho", true));</v>
-      </c>
       <c r="F51" t="str">
-        <f t="shared" ref="F51" si="3">"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;G51&amp;" insere o código "&amp;C51&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
-        <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código kxujyo72 e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
-      </c>
-      <c r="G51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
+        <f>"_repo.add(new Element("""&amp;D51&amp;""", """&amp;B51&amp;""", "&amp;IF(C51=1,"true","false")&amp;"));"</f>
+        <v>_repo.add(new Element("nv2lnvoa", "Vitinho", true));</v>
+      </c>
+      <c r="G51" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H51&amp;" insere o código "&amp;D51&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
+        <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código nv2lnvoa e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
+      </c>
+      <c r="H51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
         <v>99</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52" t="s">
-        <v>62</v>
+      <c r="C52">
+        <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" si="2"/>
-        <v>_repo.add(new Element("5jwzbhwk", "Belinha", false));</v>
+        <v>102</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" ref="F52" si="4">"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;G52&amp;" insere o código "&amp;C52&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
-        <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código 5jwzbhwk e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
-      </c>
-      <c r="G52" t="s">
+        <f>"_repo.add(new Element("""&amp;D52&amp;""", """&amp;B52&amp;""", "&amp;IF(C52=1,"true","false")&amp;"));"</f>
+        <v>_repo.add(new Element("z4103cju", "Belinha", false));</v>
+      </c>
+      <c r="G52" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H52&amp;" insere o código "&amp;D52&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
+        <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código z4103cju e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
+      </c>
+      <c r="H52" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H52">
+    <sortCondition ref="A2:A52"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/other/ElementsData.xlsx
+++ b/src/main/other/ElementsData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="109">
   <si>
     <t>Lula</t>
   </si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t>domain</t>
+  </si>
+  <si>
+    <t>Angie</t>
+  </si>
+  <si>
+    <t>1rgbfly1</t>
   </si>
 </sst>
 </file>
@@ -386,9 +392,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,11 +676,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50:F52"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2057,7 +2064,7 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C50">
@@ -2137,9 +2144,37 @@
         <v>96</v>
       </c>
     </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" t="str">
+        <f>"_repo.add(new Element("""&amp;D53&amp;""", """&amp;B53&amp;""", "&amp;IF(C53=1,"true","false")&amp;"));"</f>
+        <v>_repo.add(new Element("1rgbfly1", "Angie", false));</v>
+      </c>
+      <c r="G53" t="str">
+        <f>"Olá! Este ano temos um presente especial, num formato diferente… Acede a "&amp;H53&amp;" insere o código "&amp;D53&amp;" e descobre a nossa surpresa de Natal! Inês e Ricardo"</f>
+        <v>Olá! Este ano temos um presente especial, num formato diferente… Acede a anossasurpresa.eu insere o código 1rgbfly1 e descobre a nossa surpresa de Natal! Inês e Ricardo</v>
+      </c>
+      <c r="H53" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:H52">
-    <sortCondition ref="A2:A52"/>
+  <sortState ref="A2:H53">
+    <sortCondition ref="A2:A53"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
